--- a/data/controles_results/difmedias_controles_staggered_variables_2023.xlsx
+++ b/data/controles_results/difmedias_controles_staggered_variables_2023.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="50">
   <si>
     <t/>
   </si>
@@ -39,7 +39,10 @@
     <t>cantidad_ara</t>
   </si>
   <si>
-    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab dummy_jb dummy_d1 dummy_ara cantidad_jb cantidad_d1 cantidad_ara , groupvar(dummy_oxxo) control(0) savexlsx(difmedias_controles_staggered_variables_2023) replace] </t>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab dummy_jb dummy_d1 dummy_ara cantidad_jb cantidad_d1 cantidad_ara ingreso , groupvar(dummy_oxxo) control(0) savexlsx(difmedias_controles_staggered_variables_2023) replace] </t>
   </si>
   <si>
     <t>N</t>
@@ -63,28 +66,34 @@
     <t>(0.000)</t>
   </si>
   <si>
-    <t>0.214</t>
+    <t>0.201</t>
   </si>
   <si>
     <t>(0.015)</t>
   </si>
   <si>
-    <t>0.109</t>
-  </si>
-  <si>
-    <t>(0.012)</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>(0.025)</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>(0.017)</t>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>(0.011)</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>3.875</t>
+  </si>
+  <si>
+    <t>(0.067)</t>
   </si>
   <si>
     <t>171</t>
@@ -96,28 +105,34 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.456</t>
+    <t>0.439</t>
   </si>
   <si>
     <t>(0.038)</t>
   </si>
   <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>(0.033)</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>(0.118)</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>(0.056)</t>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>(0.032)</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>(0.107)</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>(0.055)</t>
+  </si>
+  <si>
+    <t>4.799</t>
+  </si>
+  <si>
+    <t>(0.068)</t>
   </si>
   <si>
     <t>.n</t>
@@ -135,16 +150,19 @@
     <t>Mean difference</t>
   </si>
   <si>
-    <t>0.242***</t>
-  </si>
-  <si>
-    <t>0.137***</t>
-  </si>
-  <si>
-    <t>0.577***</t>
-  </si>
-  <si>
-    <t>0.213***</t>
+    <t>0.237***</t>
+  </si>
+  <si>
+    <t>0.130***</t>
+  </si>
+  <si>
+    <t>0.512***</t>
+  </si>
+  <si>
+    <t>0.215***</t>
+  </si>
+  <si>
+    <t>0.924***</t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -202,19 +220,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -225,19 +243,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -245,22 +263,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -268,22 +286,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -294,13 +312,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -314,22 +332,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -340,13 +358,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -360,22 +378,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -386,13 +404,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -406,22 +424,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -432,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -452,22 +470,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -478,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -498,22 +516,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -524,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -544,21 +562,67 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>0</v>
       </c>
     </row>
